--- a/static/xlsx_files/filled_form/3/Pashayev_Rafiq.xlsx
+++ b/static/xlsx_files/filled_form/3/Pashayev_Rafiq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Counter</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Required</t>
   </si>
   <si>
-    <t>uvfyhj</t>
+    <t>Answer 1</t>
   </si>
   <si>
     <t>No value given</t>
@@ -58,30 +58,43 @@
     <t>What is Lorem Ipsum?</t>
   </si>
   <si>
-    <t>Salam</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
-    <t>Lorem Ipsum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem Ipsum
+    <t>Value 2</t>
+  </si>
+  <si>
+    <t>Value 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value 1
+Value 2
 </t>
   </si>
   <si>
-    <t>Title 2</t>
-  </si>
-  <si>
-    <t>Desc 2</t>
+    <t>What is Lorem Ipsum 2?</t>
+  </si>
+  <si>
+    <t>Description 2</t>
+  </si>
+  <si>
+    <t>Value 1</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry.</t>
+  </si>
+  <si>
+    <t>Description 3</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000//static/media/3/6557c5a4-8269-4c34-a456-6300a08d6f9c.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +109,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -133,16 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,10 +523,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -522,8 +548,40 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>